--- a/medicine/Enfance/Gaya_Wisniewski/Gaya_Wisniewski.xlsx
+++ b/medicine/Enfance/Gaya_Wisniewski/Gaya_Wisniewski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaya Wisniewski est une autrice-illustratrice belge, née le 28 août 1980 à Uccle en Belgique.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 28 août 1980 à Uccle en Belgique, Gaya Wisniewski étudie l’illustration à l'Institut Saint-Luc à Bruxelles. Après douze ans comme professeure de dessin, elle entame l'écriture et la réalisation de son premier livre jeunesse, Mon bison aux éditions MeMo. Depuis 2016, elle a quitté la Belgique pour le Gers, où elle se consacre à l’illustration[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 28 août 1980 à Uccle en Belgique, Gaya Wisniewski étudie l’illustration à l'Institut Saint-Luc à Bruxelles. Après douze ans comme professeure de dessin, elle entame l'écriture et la réalisation de son premier livre jeunesse, Mon bison aux éditions MeMo. Depuis 2016, elle a quitté la Belgique pour le Gers, où elle se consacre à l’illustration.
 </t>
         </is>
       </c>
@@ -544,21 +558,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Autrice-illustratrice
-Mon bison, éditions MeMo, 2018
+          <t>Autrice-illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mon bison, éditions MeMo, 2018
 Chnourka, éditions MeMo, 2019
 Ours à New York, éditions MeMo, 2020
 Papa, écoute-moi, éditions MeMo, 2020
 L'Été de Chnourka, éditions MeMo, 2021
-Le voyage de Chnourka, Éditions Memo, 2023
-Illustratrice
-Akita et les Grizzlys, texte de Caroline Solé, L'École des loisirs, 2019[2]
-Thao et le Hamö secret, texte de Caroline Solé, L'École des loisirs, 2020
-Jimi de la planète aux couleurs, texte de Caroline Solé, l'École des loisirs, 2022
-Ma plus belle ombre, texte de Carl Norac, MeMo, 2022[3]
-Jimi : bleu nuit, texte de Caroline Solé, l'École des loisirs, 2023
-Piccadilly Circus[4], texte de Alex Cousseau, Éditions Memo, 2023
-Neb, texte de Caroline Solé, L'école des loisirs, 2024</t>
+Le voyage de Chnourka, Éditions Memo, 2023</t>
         </is>
       </c>
     </row>
@@ -583,13 +594,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Akita et les Grizzlys, texte de Caroline Solé, L'École des loisirs, 2019
+Thao et le Hamö secret, texte de Caroline Solé, L'École des loisirs, 2020
+Jimi de la planète aux couleurs, texte de Caroline Solé, l'École des loisirs, 2022
+Ma plus belle ombre, texte de Carl Norac, MeMo, 2022
+Jimi : bleu nuit, texte de Caroline Solé, l'École des loisirs, 2023
+Piccadilly Circus, texte de Alex Cousseau, Éditions Memo, 2023
+Neb, texte de Caroline Solé, L'école des loisirs, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gaya_Wisniewski</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaya_Wisniewski</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mon bison : prix Libbylit (de l'IBBY) 2018, catégorie album ; prix Jérôme Main 2019, premier album ; prix littéraires de la Fédération Wallonie-Bruxelles 2019: prix de la première œuvre en littérature de jeunesse[5]
-Pépite de la Fiction junior 2019[6],[7] du Salon du livre et de la presse jeunesse pour Akita et les grizzlys qu'elle a illustré, sur un texte de Caroline Solé</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mon bison : prix Libbylit (de l'IBBY) 2018, catégorie album ; prix Jérôme Main 2019, premier album ; prix littéraires de la Fédération Wallonie-Bruxelles 2019: prix de la première œuvre en littérature de jeunesse
+Pépite de la Fiction junior 2019, du Salon du livre et de la presse jeunesse pour Akita et les grizzlys qu'elle a illustré, sur un texte de Caroline Solé</t>
         </is>
       </c>
     </row>
